--- a/SPP_MS_R_SB.xlsx
+++ b/SPP_MS_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         <v>32850</v>
       </c>
       <c r="D2" t="n">
-        <v>1.985714740003459</v>
+        <v>15.90034693502821</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -502,14 +502,14 @@
         <v>38778</v>
       </c>
       <c r="D3" t="n">
-        <v>1.935461429995485</v>
+        <v>15.22779750800692</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -526,14 +526,14 @@
         <v>30716</v>
       </c>
       <c r="D4" t="n">
-        <v>1.912552889960352</v>
+        <v>15.16038342798129</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -550,12 +550,900 @@
         <v>78221</v>
       </c>
       <c r="D5" t="n">
-        <v>1.973856520024128</v>
+        <v>15.57854169595521</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2876</v>
+      </c>
+      <c r="C6" t="n">
+        <v>82566</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2086738200159743</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86921</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2137891299789771</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5076</v>
+      </c>
+      <c r="C8" t="n">
+        <v>195298</v>
+      </c>
+      <c r="D8" t="n">
+        <v>898.023141365964</v>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4894</v>
+      </c>
+      <c r="C9" t="n">
+        <v>187289</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.14029553002911</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4989</v>
+      </c>
+      <c r="C10" t="n">
+        <v>191696</v>
+      </c>
+      <c r="D10" t="n">
+        <v>897.8896097330144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>62</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19150</v>
+      </c>
+      <c r="D11" t="n">
+        <v>81.04550660599489</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C12" t="n">
+        <v>297047</v>
+      </c>
+      <c r="D12" t="n">
+        <v>897.8839727189625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>239</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>107967</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12175294</v>
+      </c>
+      <c r="D13" t="n">
+        <v>898.0263711379957</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>203688</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.56989200995304</v>
+      </c>
+      <c r="E14" t="n">
+        <v>696</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40760</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1561234</v>
+      </c>
+      <c r="D15" t="n">
+        <v>897.9416866730317</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1718</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78382</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4512816</v>
+      </c>
+      <c r="D16" t="n">
+        <v>898.6976977559971</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2282</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>208937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20046134</v>
+      </c>
+      <c r="D17" t="n">
+        <v>897.8997429420124</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3812</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>712</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10346</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31.10437356203329</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46429</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4547379079740494</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58343</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.323963015980553</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00527662003878504</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20342</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5163959189667366</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29965</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4032685889978893</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>531</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0227796399849467</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24337</v>
+      </c>
+      <c r="D25" t="n">
+        <v>301.3013927919674</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2766</v>
+      </c>
+      <c r="C26" t="n">
+        <v>75902</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.30934341700049</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2688</v>
+      </c>
+      <c r="C27" t="n">
+        <v>60481</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.43601247598417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70024</v>
+      </c>
+      <c r="D28" t="n">
+        <v>898.0318849040195</v>
+      </c>
+      <c r="E28" t="n">
+        <v>124</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6728</v>
+      </c>
+      <c r="C29" t="n">
+        <v>250718</v>
+      </c>
+      <c r="D29" t="n">
+        <v>897.9704504300025</v>
+      </c>
+      <c r="E29" t="n">
+        <v>226</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2343</v>
+      </c>
+      <c r="C30" t="n">
+        <v>61556</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15.2109211589559</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8122</v>
+      </c>
+      <c r="C31" t="n">
+        <v>395040</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19.40369643695885</v>
+      </c>
+      <c r="E31" t="n">
+        <v>57</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16853</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1162100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>195.7397031129804</v>
+      </c>
+      <c r="E32" t="n">
+        <v>84</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28789</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2564142</v>
+      </c>
+      <c r="D33" t="n">
+        <v>897.9736041009892</v>
+      </c>
+      <c r="E33" t="n">
+        <v>175</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>43679</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4747394</v>
+      </c>
+      <c r="D34" t="n">
+        <v>898.5426065319916</v>
+      </c>
+      <c r="E34" t="n">
+        <v>212</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7308</v>
+      </c>
+      <c r="C35" t="n">
+        <v>330032</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.66239051200682</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25169</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1985262</v>
+      </c>
+      <c r="D36" t="n">
+        <v>898.0144742570119</v>
+      </c>
+      <c r="E36" t="n">
+        <v>115</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>53587</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5969376</v>
+      </c>
+      <c r="D37" t="n">
+        <v>898.7450942380237</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>90803</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12718020</v>
+      </c>
+      <c r="D38" t="n">
+        <v>898.0262056919746</v>
+      </c>
+      <c r="E38" t="n">
+        <v>208</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>140709</v>
+      </c>
+      <c r="C39" t="n">
+        <v>24359504</v>
+      </c>
+      <c r="D39" t="n">
+        <v>898.0084040749935</v>
+      </c>
+      <c r="E39" t="n">
+        <v>264</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14784</v>
+      </c>
+      <c r="C40" t="n">
+        <v>978655</v>
+      </c>
+      <c r="D40" t="n">
+        <v>897.9310011750786</v>
+      </c>
+      <c r="E40" t="n">
+        <v>143</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14884</v>
+      </c>
+      <c r="C41" t="n">
+        <v>988775</v>
+      </c>
+      <c r="D41" t="n">
+        <v>898.083358337055</v>
+      </c>
+      <c r="E41" t="n">
+        <v>145</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>15134</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1013486</v>
+      </c>
+      <c r="D42" t="n">
+        <v>898.0198499389226</v>
+      </c>
+      <c r="E42" t="n">
+        <v>150</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>

--- a/SPP_MS_R_SB.xlsx
+++ b/SPP_MS_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528</v>
+        <v>1365</v>
       </c>
       <c r="C2" t="n">
-        <v>32850</v>
+        <v>27498</v>
       </c>
       <c r="D2" t="n">
-        <v>15.90034693502821</v>
+        <v>0.2284660720033571</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1710</v>
+        <v>5943</v>
       </c>
       <c r="C3" t="n">
-        <v>38778</v>
+        <v>220888</v>
       </c>
       <c r="D3" t="n">
-        <v>15.22779750800692</v>
+        <v>1797.847449093999</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1460</v>
+        <v>62046</v>
       </c>
       <c r="C4" t="n">
-        <v>30716</v>
+        <v>6705912</v>
       </c>
       <c r="D4" t="n">
-        <v>15.16038342798129</v>
+        <v>1797.81697106699</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>805</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2809</v>
+        <v>1365</v>
       </c>
       <c r="C5" t="n">
-        <v>78221</v>
+        <v>27498</v>
       </c>
       <c r="D5" t="n">
-        <v>15.57854169595521</v>
+        <v>0.2500917700235732</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,68 +564,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2876</v>
+        <v>5943</v>
       </c>
       <c r="C6" t="n">
-        <v>82566</v>
+        <v>220888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2086738200159743</v>
+        <v>1797.841199133021</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2964</v>
+        <v>62046</v>
       </c>
       <c r="C7" t="n">
-        <v>86921</v>
+        <v>6705912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2137891299789771</v>
+        <v>1797.817051886988</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>805</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5076</v>
+        <v>213629</v>
       </c>
       <c r="C8" t="n">
-        <v>195298</v>
+        <v>20510918</v>
       </c>
       <c r="D8" t="n">
-        <v>898.023141365964</v>
+        <v>1797.096046803985</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>3904</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -636,20 +636,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4894</v>
+        <v>723</v>
       </c>
       <c r="C9" t="n">
-        <v>187289</v>
+        <v>10558</v>
       </c>
       <c r="D9" t="n">
-        <v>59.14029553002911</v>
+        <v>30.28731978998985</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -660,44 +660,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4989</v>
+        <v>1856</v>
       </c>
       <c r="C10" t="n">
-        <v>191696</v>
+        <v>43324</v>
       </c>
       <c r="D10" t="n">
-        <v>897.8896097330144</v>
+        <v>3.962367528001778</v>
       </c>
       <c r="E10" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1181</v>
+        <v>2342</v>
       </c>
       <c r="C11" t="n">
-        <v>19150</v>
+        <v>61843</v>
       </c>
       <c r="D11" t="n">
-        <v>81.04550660599489</v>
+        <v>2.721757424005773</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -708,68 +708,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7583</v>
+        <v>385</v>
       </c>
       <c r="C12" t="n">
-        <v>297047</v>
+        <v>3910</v>
       </c>
       <c r="D12" t="n">
-        <v>897.8839727189625</v>
+        <v>4.182151478948072</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107967</v>
+        <v>1203</v>
       </c>
       <c r="C13" t="n">
-        <v>12175294</v>
+        <v>22918</v>
       </c>
       <c r="D13" t="n">
-        <v>898.0263711379957</v>
+        <v>0.1405893189948983</v>
       </c>
       <c r="E13" t="n">
-        <v>1571</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11133</v>
+        <v>1661</v>
       </c>
       <c r="C14" t="n">
-        <v>203688</v>
+        <v>36245</v>
       </c>
       <c r="D14" t="n">
-        <v>23.56989200995304</v>
+        <v>12.92074332101038</v>
       </c>
       <c r="E14" t="n">
-        <v>696</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -780,92 +780,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40760</v>
+        <v>603</v>
       </c>
       <c r="C15" t="n">
-        <v>1561234</v>
+        <v>7118</v>
       </c>
       <c r="D15" t="n">
-        <v>897.9416866730317</v>
+        <v>0.02601042797323316</v>
       </c>
       <c r="E15" t="n">
-        <v>1718</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78382</v>
+        <v>1520</v>
       </c>
       <c r="C16" t="n">
-        <v>4512816</v>
+        <v>30691</v>
       </c>
       <c r="D16" t="n">
-        <v>898.6976977559971</v>
+        <v>363.8943999390467</v>
       </c>
       <c r="E16" t="n">
-        <v>2282</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208937</v>
+        <v>2975</v>
       </c>
       <c r="C17" t="n">
-        <v>20046134</v>
+        <v>83410</v>
       </c>
       <c r="D17" t="n">
-        <v>897.8997429420124</v>
+        <v>16.66985190502601</v>
       </c>
       <c r="E17" t="n">
-        <v>3812</v>
+        <v>49</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>712</v>
+        <v>3052</v>
       </c>
       <c r="C18" t="n">
-        <v>10346</v>
+        <v>68579</v>
       </c>
       <c r="D18" t="n">
-        <v>31.10437356203329</v>
+        <v>41.13790325901937</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -876,20 +876,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1946</v>
+        <v>2916</v>
       </c>
       <c r="C19" t="n">
-        <v>46429</v>
+        <v>72226</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4547379079740494</v>
+        <v>692.2314709489583</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -900,68 +900,68 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2254</v>
+        <v>5509</v>
       </c>
       <c r="C20" t="n">
-        <v>58343</v>
+        <v>198502</v>
       </c>
       <c r="D20" t="n">
-        <v>1.323963015980553</v>
+        <v>1797.796976820042</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>66066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00527662003878504</v>
+        <v>0.9120881570270285</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1150</v>
+        <v>7958</v>
       </c>
       <c r="C22" t="n">
-        <v>20342</v>
+        <v>380572</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5163959189667366</v>
+        <v>60.96479574701516</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -972,20 +972,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1441</v>
+        <v>16975</v>
       </c>
       <c r="C23" t="n">
-        <v>29965</v>
+        <v>1173324</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4032685889978893</v>
+        <v>953.0901219830266</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -996,68 +996,68 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531</v>
+        <v>28546</v>
       </c>
       <c r="C24" t="n">
-        <v>6494</v>
+        <v>2524296</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0227796399849467</v>
+        <v>1797.845908077026</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1268</v>
+        <v>44184</v>
       </c>
       <c r="C25" t="n">
-        <v>24337</v>
+        <v>4844704</v>
       </c>
       <c r="D25" t="n">
-        <v>301.3013927919674</v>
+        <v>1797.741982588021</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2766</v>
+        <v>7185</v>
       </c>
       <c r="C26" t="n">
-        <v>75902</v>
+        <v>317906</v>
       </c>
       <c r="D26" t="n">
-        <v>24.30934341700049</v>
+        <v>25.75317898602225</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1068,44 +1068,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2688</v>
+        <v>25331</v>
       </c>
       <c r="C27" t="n">
-        <v>60481</v>
+        <v>2009106</v>
       </c>
       <c r="D27" t="n">
-        <v>24.43601247598417</v>
+        <v>1797.823965932999</v>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2820</v>
+        <v>53103</v>
       </c>
       <c r="C28" t="n">
-        <v>70024</v>
+        <v>5848408</v>
       </c>
       <c r="D28" t="n">
-        <v>898.0318849040195</v>
+        <v>1797.793483160029</v>
       </c>
       <c r="E28" t="n">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1116,20 +1116,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6728</v>
+        <v>92735</v>
       </c>
       <c r="C29" t="n">
-        <v>250718</v>
+        <v>13326364</v>
       </c>
       <c r="D29" t="n">
-        <v>897.9704504300025</v>
+        <v>1797.482706970011</v>
       </c>
       <c r="E29" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1140,310 +1140,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2343</v>
+        <v>141312</v>
       </c>
       <c r="C30" t="n">
-        <v>61556</v>
+        <v>24587470</v>
       </c>
       <c r="D30" t="n">
-        <v>15.2109211589559</v>
+        <v>1797.718275458028</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>8122</v>
-      </c>
-      <c r="C31" t="n">
-        <v>395040</v>
-      </c>
-      <c r="D31" t="n">
-        <v>19.40369643695885</v>
-      </c>
-      <c r="E31" t="n">
-        <v>57</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>16853</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1162100</v>
-      </c>
-      <c r="D32" t="n">
-        <v>195.7397031129804</v>
-      </c>
-      <c r="E32" t="n">
-        <v>84</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>28789</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2564142</v>
-      </c>
-      <c r="D33" t="n">
-        <v>897.9736041009892</v>
-      </c>
-      <c r="E33" t="n">
-        <v>175</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>43679</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4747394</v>
-      </c>
-      <c r="D34" t="n">
-        <v>898.5426065319916</v>
-      </c>
-      <c r="E34" t="n">
-        <v>212</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>7308</v>
-      </c>
-      <c r="C35" t="n">
-        <v>330032</v>
-      </c>
-      <c r="D35" t="n">
-        <v>18.66239051200682</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>25169</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1985262</v>
-      </c>
-      <c r="D36" t="n">
-        <v>898.0144742570119</v>
-      </c>
-      <c r="E36" t="n">
-        <v>115</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>53587</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5969376</v>
-      </c>
-      <c r="D37" t="n">
-        <v>898.7450942380237</v>
-      </c>
-      <c r="E37" t="n">
-        <v>167</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>90803</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12718020</v>
-      </c>
-      <c r="D38" t="n">
-        <v>898.0262056919746</v>
-      </c>
-      <c r="E38" t="n">
-        <v>208</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>140709</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24359504</v>
-      </c>
-      <c r="D39" t="n">
-        <v>898.0084040749935</v>
-      </c>
-      <c r="E39" t="n">
-        <v>264</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14784</v>
-      </c>
-      <c r="C40" t="n">
-        <v>978655</v>
-      </c>
-      <c r="D40" t="n">
-        <v>897.9310011750786</v>
-      </c>
-      <c r="E40" t="n">
-        <v>143</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>14884</v>
-      </c>
-      <c r="C41" t="n">
-        <v>988775</v>
-      </c>
-      <c r="D41" t="n">
-        <v>898.083358337055</v>
-      </c>
-      <c r="E41" t="n">
-        <v>145</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>15134</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1013486</v>
-      </c>
-      <c r="D42" t="n">
-        <v>898.0198499389226</v>
-      </c>
-      <c r="E42" t="n">
-        <v>150</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
